--- a/Data/15062017_8thIpam/Processed/8thiPAM_Genotypes.xlsx
+++ b/Data/15062017_8thIpam/Processed/8thiPAM_Genotypes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="0" windowWidth="13460" windowHeight="17900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Genotypes.csv" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3775" uniqueCount="676">
   <si>
     <t>Picture</t>
   </si>
@@ -1851,9 +1851,6 @@
     <t>7th Ipam</t>
   </si>
   <si>
-    <t>1738C</t>
-  </si>
-  <si>
     <t>27 1721_1748.csv</t>
   </si>
   <si>
@@ -2022,26 +2019,50 @@
     <t>8th Ipam</t>
   </si>
   <si>
-    <t>1734C</t>
-  </si>
-  <si>
     <t>1739B</t>
   </si>
   <si>
-    <t>1733D</t>
-  </si>
-  <si>
     <t>1759K</t>
   </si>
   <si>
     <t>1753L</t>
+  </si>
+  <si>
+    <t>1732E</t>
+  </si>
+  <si>
+    <t>1738O</t>
+  </si>
+  <si>
+    <t>13 1725_1738 (2)</t>
+  </si>
+  <si>
+    <t>1729M</t>
+  </si>
+  <si>
+    <t>1721O</t>
+  </si>
+  <si>
+    <t>1733O</t>
+  </si>
+  <si>
+    <t>1735I</t>
+  </si>
+  <si>
+    <t>1739O</t>
+  </si>
+  <si>
+    <t>1759O</t>
+  </si>
+  <si>
+    <t>1738B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2072,6 +2093,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2099,9 +2125,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2387,8 +2414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN306"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection sqref="A1:F255"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2440,7 +2467,7 @@
         <v>606</v>
       </c>
       <c r="AL1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
@@ -2454,7 +2481,7 @@
         <v>511</v>
       </c>
       <c r="D2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2519,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>511</v>
+        <v>669</v>
+      </c>
+      <c r="C3">
+        <v>1729</v>
       </c>
       <c r="D3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2534,7 +2561,7 @@
         <v>405</v>
       </c>
       <c r="G3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I3" t="s">
         <v>252</v>
@@ -2612,7 +2639,7 @@
         <v>540</v>
       </c>
       <c r="D4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2621,7 +2648,7 @@
         <v>405</v>
       </c>
       <c r="G4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I4" t="s">
         <v>283</v>
@@ -2699,7 +2726,7 @@
         <v>519</v>
       </c>
       <c r="D5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -2708,16 +2735,16 @@
         <v>405</v>
       </c>
       <c r="G5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I5" t="s">
         <v>254</v>
       </c>
       <c r="M5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O5">
         <f>LEN(N5)</f>
@@ -2794,7 +2821,7 @@
         <v>527</v>
       </c>
       <c r="D6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2803,16 +2830,16 @@
         <v>405</v>
       </c>
       <c r="G6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I6" t="s">
         <v>294</v>
       </c>
       <c r="M6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="N6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O6">
         <f>LEN(N6)</f>
@@ -2889,7 +2916,7 @@
         <v>526</v>
       </c>
       <c r="D7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -2898,16 +2925,16 @@
         <v>405</v>
       </c>
       <c r="G7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I7" t="s">
         <v>267</v>
       </c>
       <c r="M7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O7">
         <f t="shared" ref="O7:O31" si="10">LEN(N7)</f>
@@ -2984,7 +3011,7 @@
         <v>514</v>
       </c>
       <c r="D8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -2993,16 +3020,16 @@
         <v>405</v>
       </c>
       <c r="G8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I8" t="s">
         <v>260</v>
       </c>
       <c r="M8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O8">
         <f t="shared" si="10"/>
@@ -3079,7 +3106,7 @@
         <v>533</v>
       </c>
       <c r="D9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -3088,16 +3115,16 @@
         <v>405</v>
       </c>
       <c r="G9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I9" t="s">
         <v>245</v>
       </c>
       <c r="M9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="N9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O9">
         <f t="shared" si="10"/>
@@ -3174,7 +3201,7 @@
         <v>525</v>
       </c>
       <c r="D10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -3183,16 +3210,16 @@
         <v>405</v>
       </c>
       <c r="G10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I10" t="s">
         <v>265</v>
       </c>
       <c r="M10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O10">
         <f t="shared" si="10"/>
@@ -3269,7 +3296,7 @@
         <v>537</v>
       </c>
       <c r="D11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -3278,16 +3305,16 @@
         <v>405</v>
       </c>
       <c r="G11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I11" t="s">
         <v>303</v>
       </c>
       <c r="M11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O11">
         <f t="shared" si="10"/>
@@ -3364,7 +3391,7 @@
         <v>525</v>
       </c>
       <c r="D12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3373,16 +3400,16 @@
         <v>405</v>
       </c>
       <c r="G12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I12" t="s">
         <v>271</v>
       </c>
       <c r="M12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O12">
         <f t="shared" si="10"/>
@@ -3459,7 +3486,7 @@
         <v>528</v>
       </c>
       <c r="D13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -3468,16 +3495,16 @@
         <v>405</v>
       </c>
       <c r="G13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I13" t="s">
         <v>298</v>
       </c>
       <c r="M13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="N13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O13">
         <f t="shared" si="10"/>
@@ -3554,7 +3581,7 @@
         <v>518</v>
       </c>
       <c r="D14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -3563,16 +3590,16 @@
         <v>405</v>
       </c>
       <c r="G14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I14" t="s">
         <v>232</v>
       </c>
       <c r="M14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O14">
         <f t="shared" si="10"/>
@@ -3649,7 +3676,7 @@
         <v>516</v>
       </c>
       <c r="D15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -3658,16 +3685,16 @@
         <v>405</v>
       </c>
       <c r="G15" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I15" t="s">
         <v>315</v>
       </c>
       <c r="M15" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="N15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O15">
         <f t="shared" si="10"/>
@@ -3744,7 +3771,7 @@
         <v>528</v>
       </c>
       <c r="D16" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -3753,16 +3780,16 @@
         <v>405</v>
       </c>
       <c r="G16" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I16" t="s">
         <v>273</v>
       </c>
       <c r="M16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N16" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O16">
         <f t="shared" si="10"/>
@@ -3839,7 +3866,7 @@
         <v>535</v>
       </c>
       <c r="D17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -3848,16 +3875,16 @@
         <v>405</v>
       </c>
       <c r="G17" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I17" t="s">
         <v>299</v>
       </c>
       <c r="M17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O17">
         <f t="shared" si="10"/>
@@ -3934,7 +3961,7 @@
         <v>538</v>
       </c>
       <c r="D18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -3943,16 +3970,16 @@
         <v>405</v>
       </c>
       <c r="G18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I18" t="s">
         <v>251</v>
       </c>
       <c r="M18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O18">
         <f t="shared" si="10"/>
@@ -4029,7 +4056,7 @@
         <v>531</v>
       </c>
       <c r="D19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -4038,16 +4065,16 @@
         <v>405</v>
       </c>
       <c r="G19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I19" t="s">
         <v>581</v>
       </c>
       <c r="M19" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O19">
         <f t="shared" si="10"/>
@@ -4124,7 +4151,7 @@
         <v>517</v>
       </c>
       <c r="D20" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E20">
         <v>9</v>
@@ -4133,16 +4160,16 @@
         <v>405</v>
       </c>
       <c r="G20" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I20" t="s">
         <v>307</v>
       </c>
       <c r="M20" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O20">
         <f t="shared" si="10"/>
@@ -4219,7 +4246,7 @@
         <v>515</v>
       </c>
       <c r="D21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -4228,16 +4255,16 @@
         <v>405</v>
       </c>
       <c r="G21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I21" t="s">
         <v>276</v>
       </c>
       <c r="M21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="N21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O21">
         <f t="shared" si="10"/>
@@ -4314,7 +4341,7 @@
         <v>510</v>
       </c>
       <c r="D22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -4323,16 +4350,16 @@
         <v>405</v>
       </c>
       <c r="G22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I22" t="s">
         <v>311</v>
       </c>
       <c r="M22" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O22">
         <f t="shared" si="10"/>
@@ -4409,7 +4436,7 @@
         <v>523</v>
       </c>
       <c r="D23" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -4418,16 +4445,16 @@
         <v>405</v>
       </c>
       <c r="G23" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I23" t="s">
         <v>239</v>
       </c>
       <c r="M23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O23">
         <f t="shared" si="10"/>
@@ -4504,7 +4531,7 @@
         <v>530</v>
       </c>
       <c r="D24" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -4513,16 +4540,16 @@
         <v>405</v>
       </c>
       <c r="G24" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I24" t="s">
         <v>305</v>
       </c>
       <c r="M24" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N24" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O24">
         <f t="shared" si="10"/>
@@ -4599,7 +4626,7 @@
         <v>510</v>
       </c>
       <c r="D25" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -4608,16 +4635,16 @@
         <v>405</v>
       </c>
       <c r="G25" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I25" t="s">
         <v>225</v>
       </c>
       <c r="M25" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="N25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O25">
         <f t="shared" si="10"/>
@@ -4694,7 +4721,7 @@
         <v>539</v>
       </c>
       <c r="D26" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -4703,16 +4730,16 @@
         <v>405</v>
       </c>
       <c r="G26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I26" t="s">
         <v>243</v>
       </c>
       <c r="M26" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N26" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O26">
         <f t="shared" si="10"/>
@@ -4789,7 +4816,7 @@
         <v>529</v>
       </c>
       <c r="D27" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E27">
         <v>6</v>
@@ -4798,16 +4825,16 @@
         <v>405</v>
       </c>
       <c r="G27" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I27" t="s">
         <v>287</v>
       </c>
       <c r="M27" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N27" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O27">
         <f t="shared" si="10"/>
@@ -4884,7 +4911,7 @@
         <v>515</v>
       </c>
       <c r="D28" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -4893,16 +4920,16 @@
         <v>405</v>
       </c>
       <c r="G28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I28" t="s">
         <v>228</v>
       </c>
       <c r="M28" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N28" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O28">
         <f t="shared" si="10"/>
@@ -4979,7 +5006,7 @@
         <v>512</v>
       </c>
       <c r="D29" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E29">
         <v>8</v>
@@ -4988,16 +5015,16 @@
         <v>405</v>
       </c>
       <c r="G29" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I29" t="s">
         <v>240</v>
       </c>
       <c r="M29" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="N29" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="O29">
         <f t="shared" si="10"/>
@@ -5074,7 +5101,7 @@
         <v>524</v>
       </c>
       <c r="D30" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E30">
         <v>9</v>
@@ -5086,10 +5113,10 @@
         <v>257</v>
       </c>
       <c r="M30" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N30" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O30">
         <f t="shared" si="10"/>
@@ -5166,7 +5193,7 @@
         <v>534</v>
       </c>
       <c r="D31" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -5178,10 +5205,10 @@
         <v>288</v>
       </c>
       <c r="M31" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N31" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O31">
         <f t="shared" si="10"/>
@@ -5252,13 +5279,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>664</v>
-      </c>
-      <c r="C32" t="s">
-        <v>516</v>
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>1739</v>
       </c>
       <c r="D32" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -5336,7 +5363,7 @@
         <v>519</v>
       </c>
       <c r="D33" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -5414,7 +5441,7 @@
         <v>520</v>
       </c>
       <c r="D34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -5492,7 +5519,7 @@
         <v>519</v>
       </c>
       <c r="D35" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -5570,7 +5597,7 @@
         <v>537</v>
       </c>
       <c r="D36" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E36">
         <v>6</v>
@@ -5648,7 +5675,7 @@
         <v>531</v>
       </c>
       <c r="D37" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E37">
         <v>7</v>
@@ -5726,7 +5753,7 @@
         <v>516</v>
       </c>
       <c r="D38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E38">
         <v>8</v>
@@ -5804,7 +5831,7 @@
         <v>514</v>
       </c>
       <c r="D39" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E39">
         <v>9</v>
@@ -5882,7 +5909,7 @@
         <v>512</v>
       </c>
       <c r="D40" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E40">
         <v>10</v>
@@ -5960,7 +5987,7 @@
         <v>527</v>
       </c>
       <c r="D41" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -6038,7 +6065,7 @@
         <v>515</v>
       </c>
       <c r="D42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -6110,13 +6137,13 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C43" t="s">
         <v>536</v>
       </c>
       <c r="D43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -6194,7 +6221,7 @@
         <v>518</v>
       </c>
       <c r="D44" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -6272,7 +6299,7 @@
         <v>539</v>
       </c>
       <c r="D45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -6350,7 +6377,7 @@
         <v>536</v>
       </c>
       <c r="D46" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E46">
         <v>6</v>
@@ -6428,7 +6455,7 @@
         <v>510</v>
       </c>
       <c r="D47" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E47">
         <v>7</v>
@@ -6506,7 +6533,7 @@
         <v>510</v>
       </c>
       <c r="D48" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E48">
         <v>8</v>
@@ -6584,7 +6611,7 @@
         <v>515</v>
       </c>
       <c r="D49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E49">
         <v>9</v>
@@ -6662,7 +6689,7 @@
         <v>526</v>
       </c>
       <c r="D50" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E50">
         <v>10</v>
@@ -6740,7 +6767,7 @@
         <v>520</v>
       </c>
       <c r="D51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -6818,7 +6845,7 @@
         <v>511</v>
       </c>
       <c r="D52" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -6896,7 +6923,7 @@
         <v>511</v>
       </c>
       <c r="D53" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -6974,7 +7001,7 @@
         <v>533</v>
       </c>
       <c r="D54" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -7052,7 +7079,7 @@
         <v>532</v>
       </c>
       <c r="D55" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -7130,7 +7157,7 @@
         <v>523</v>
       </c>
       <c r="D56" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E56">
         <v>6</v>
@@ -7208,7 +7235,7 @@
         <v>513</v>
       </c>
       <c r="D57" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E57">
         <v>7</v>
@@ -7286,7 +7313,7 @@
         <v>530</v>
       </c>
       <c r="D58" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E58">
         <v>8</v>
@@ -7364,7 +7391,7 @@
         <v>531</v>
       </c>
       <c r="D59" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E59">
         <v>9</v>
@@ -7442,7 +7469,7 @@
         <v>534</v>
       </c>
       <c r="D60" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -7520,7 +7547,7 @@
         <v>514</v>
       </c>
       <c r="D61" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -7598,7 +7625,7 @@
         <v>521</v>
       </c>
       <c r="D62" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -7676,7 +7703,7 @@
         <v>521</v>
       </c>
       <c r="D63" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E63">
         <v>4</v>
@@ -7754,7 +7781,7 @@
         <v>524</v>
       </c>
       <c r="D64" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E64">
         <v>5</v>
@@ -7832,7 +7859,7 @@
         <v>522</v>
       </c>
       <c r="D65" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E65">
         <v>6</v>
@@ -7910,7 +7937,7 @@
         <v>539</v>
       </c>
       <c r="D66" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E66">
         <v>7</v>
@@ -7988,7 +8015,7 @@
         <v>526</v>
       </c>
       <c r="D67" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E67">
         <v>8</v>
@@ -8066,7 +8093,7 @@
         <v>525</v>
       </c>
       <c r="D68" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E68">
         <v>9</v>
@@ -8144,7 +8171,7 @@
         <v>524</v>
       </c>
       <c r="D69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E69">
         <v>10</v>
@@ -8222,7 +8249,7 @@
         <v>524</v>
       </c>
       <c r="D70" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -8300,7 +8327,7 @@
         <v>530</v>
       </c>
       <c r="D71" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -8378,7 +8405,7 @@
         <v>529</v>
       </c>
       <c r="D72" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -8456,7 +8483,7 @@
         <v>517</v>
       </c>
       <c r="D73" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E73">
         <v>4</v>
@@ -8534,7 +8561,7 @@
         <v>529</v>
       </c>
       <c r="D74" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -8612,7 +8639,7 @@
         <v>525</v>
       </c>
       <c r="D75" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E75">
         <v>6</v>
@@ -8690,7 +8717,7 @@
         <v>513</v>
       </c>
       <c r="D76" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E76">
         <v>7</v>
@@ -8768,7 +8795,7 @@
         <v>534</v>
       </c>
       <c r="D77" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E77">
         <v>8</v>
@@ -8846,7 +8873,7 @@
         <v>520</v>
       </c>
       <c r="D78" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E78">
         <v>9</v>
@@ -8924,7 +8951,7 @@
         <v>522</v>
       </c>
       <c r="D79" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -9002,7 +9029,7 @@
         <v>538</v>
       </c>
       <c r="D80" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -9080,7 +9107,7 @@
         <v>518</v>
       </c>
       <c r="D81" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E81">
         <v>3</v>
@@ -9158,7 +9185,7 @@
         <v>517</v>
       </c>
       <c r="D82" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -9236,7 +9263,7 @@
         <v>516</v>
       </c>
       <c r="D83" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -9314,7 +9341,7 @@
         <v>519</v>
       </c>
       <c r="D84" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E84">
         <v>6</v>
@@ -9392,7 +9419,7 @@
         <v>537</v>
       </c>
       <c r="D85" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E85">
         <v>7</v>
@@ -9464,13 +9491,13 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>670</v>
       </c>
       <c r="C86" t="s">
         <v>511</v>
       </c>
       <c r="D86" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E86">
         <v>8</v>
@@ -9548,7 +9575,7 @@
         <v>522</v>
       </c>
       <c r="D87" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -9626,7 +9653,7 @@
         <v>514</v>
       </c>
       <c r="D88" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -9704,7 +9731,7 @@
         <v>514</v>
       </c>
       <c r="D89" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -9782,7 +9809,7 @@
         <v>510</v>
       </c>
       <c r="D90" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -9860,7 +9887,7 @@
         <v>539</v>
       </c>
       <c r="D91" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -9938,7 +9965,7 @@
         <v>515</v>
       </c>
       <c r="D92" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -10016,7 +10043,7 @@
         <v>526</v>
       </c>
       <c r="D93" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E93">
         <v>7</v>
@@ -10094,7 +10121,7 @@
         <v>513</v>
       </c>
       <c r="D94" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E94">
         <v>8</v>
@@ -10172,7 +10199,7 @@
         <v>522</v>
       </c>
       <c r="D95" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E95">
         <v>9</v>
@@ -10250,7 +10277,7 @@
         <v>531</v>
       </c>
       <c r="D96" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E96">
         <v>10</v>
@@ -10328,7 +10355,7 @@
         <v>529</v>
       </c>
       <c r="D97" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -10400,13 +10427,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="C98" t="s">
         <v>528</v>
       </c>
       <c r="D98" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -10484,7 +10511,7 @@
         <v>520</v>
       </c>
       <c r="D99" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E99">
         <v>3</v>
@@ -10540,7 +10567,7 @@
         <v>1743</v>
       </c>
       <c r="AL99" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AM99" t="str">
         <f t="shared" si="20"/>
@@ -10562,7 +10589,7 @@
         <v>526</v>
       </c>
       <c r="D100" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E100">
         <v>4</v>
@@ -10640,7 +10667,7 @@
         <v>512</v>
       </c>
       <c r="D101" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E101">
         <v>5</v>
@@ -10718,7 +10745,7 @@
         <v>513</v>
       </c>
       <c r="D102" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E102">
         <v>6</v>
@@ -10796,7 +10823,7 @@
         <v>523</v>
       </c>
       <c r="D103" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E103">
         <v>7</v>
@@ -10874,7 +10901,7 @@
         <v>537</v>
       </c>
       <c r="D104" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E104">
         <v>8</v>
@@ -10952,7 +10979,7 @@
         <v>510</v>
       </c>
       <c r="D105" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E105">
         <v>9</v>
@@ -11030,7 +11057,7 @@
         <v>519</v>
       </c>
       <c r="D106" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E106">
         <v>10</v>
@@ -11108,7 +11135,7 @@
         <v>533</v>
       </c>
       <c r="D107" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -11186,7 +11213,7 @@
         <v>515</v>
       </c>
       <c r="D108" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -11264,7 +11291,7 @@
         <v>534</v>
       </c>
       <c r="D109" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E109">
         <v>3</v>
@@ -11342,7 +11369,7 @@
         <v>539</v>
       </c>
       <c r="D110" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E110">
         <v>4</v>
@@ -11420,7 +11447,7 @@
         <v>517</v>
       </c>
       <c r="D111" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E111">
         <v>5</v>
@@ -11498,7 +11525,7 @@
         <v>525</v>
       </c>
       <c r="D112" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E112">
         <v>6</v>
@@ -11576,7 +11603,7 @@
         <v>520</v>
       </c>
       <c r="D113" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E113">
         <v>7</v>
@@ -11654,7 +11681,7 @@
         <v>518</v>
       </c>
       <c r="D114" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E114">
         <v>8</v>
@@ -11726,13 +11753,13 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>166</v>
+        <v>667</v>
       </c>
       <c r="C115" t="s">
         <v>534</v>
       </c>
       <c r="D115" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E115">
         <v>9</v>
@@ -11810,7 +11837,7 @@
         <v>529</v>
       </c>
       <c r="D116" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E116">
         <v>10</v>
@@ -11887,8 +11914,8 @@
       <c r="C117" t="s">
         <v>535</v>
       </c>
-      <c r="D117" t="s">
-        <v>651</v>
+      <c r="D117" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -11965,8 +11992,8 @@
       <c r="C118" t="s">
         <v>534</v>
       </c>
-      <c r="D118" t="s">
-        <v>651</v>
+      <c r="D118" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -12038,13 +12065,13 @@
         <v>13</v>
       </c>
       <c r="B119" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C119" t="s">
         <v>529</v>
       </c>
-      <c r="D119" t="s">
-        <v>651</v>
+      <c r="D119" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -12121,8 +12148,8 @@
       <c r="C120" t="s">
         <v>529</v>
       </c>
-      <c r="D120" t="s">
-        <v>651</v>
+      <c r="D120" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -12199,8 +12226,8 @@
       <c r="C121" t="s">
         <v>536</v>
       </c>
-      <c r="D121" t="s">
-        <v>651</v>
+      <c r="D121" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E121">
         <v>5</v>
@@ -12277,8 +12304,8 @@
       <c r="C122" t="s">
         <v>524</v>
       </c>
-      <c r="D122" t="s">
-        <v>651</v>
+      <c r="D122" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E122">
         <v>6</v>
@@ -12355,8 +12382,8 @@
       <c r="C123" t="s">
         <v>520</v>
       </c>
-      <c r="D123" t="s">
-        <v>651</v>
+      <c r="D123" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E123">
         <v>7</v>
@@ -12433,8 +12460,8 @@
       <c r="C124" t="s">
         <v>537</v>
       </c>
-      <c r="D124" t="s">
-        <v>651</v>
+      <c r="D124" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E124">
         <v>8</v>
@@ -12511,8 +12538,8 @@
       <c r="C125" t="s">
         <v>514</v>
       </c>
-      <c r="D125" t="s">
-        <v>651</v>
+      <c r="D125" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E125">
         <v>9</v>
@@ -12589,8 +12616,8 @@
       <c r="C126" t="s">
         <v>536</v>
       </c>
-      <c r="D126" t="s">
-        <v>651</v>
+      <c r="D126" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E126">
         <v>10</v>
@@ -12668,7 +12695,7 @@
         <v>516</v>
       </c>
       <c r="D127" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -12746,7 +12773,7 @@
         <v>521</v>
       </c>
       <c r="D128" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E128">
         <v>2</v>
@@ -12824,7 +12851,7 @@
         <v>530</v>
       </c>
       <c r="D129" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E129">
         <v>3</v>
@@ -12902,7 +12929,7 @@
         <v>527</v>
       </c>
       <c r="D130" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E130">
         <v>4</v>
@@ -12980,7 +13007,7 @@
         <v>510</v>
       </c>
       <c r="D131" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E131">
         <v>5</v>
@@ -13058,7 +13085,7 @@
         <v>525</v>
       </c>
       <c r="D132" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E132">
         <v>6</v>
@@ -13136,7 +13163,7 @@
         <v>530</v>
       </c>
       <c r="D133" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E133">
         <v>7</v>
@@ -13214,7 +13241,7 @@
         <v>511</v>
       </c>
       <c r="D134" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E134">
         <v>8</v>
@@ -13292,7 +13319,7 @@
         <v>511</v>
       </c>
       <c r="D135" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E135">
         <v>9</v>
@@ -13370,7 +13397,7 @@
         <v>540</v>
       </c>
       <c r="D136" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E136">
         <v>10</v>
@@ -13448,7 +13475,7 @@
         <v>512</v>
       </c>
       <c r="D137" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -13526,7 +13553,7 @@
         <v>538</v>
       </c>
       <c r="D138" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E138">
         <v>2</v>
@@ -13604,7 +13631,7 @@
         <v>525</v>
       </c>
       <c r="D139" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E139">
         <v>3</v>
@@ -13682,7 +13709,7 @@
         <v>519</v>
       </c>
       <c r="D140" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E140">
         <v>4</v>
@@ -13760,7 +13787,7 @@
         <v>519</v>
       </c>
       <c r="D141" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E141">
         <v>5</v>
@@ -13838,7 +13865,7 @@
         <v>521</v>
       </c>
       <c r="D142" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E142">
         <v>6</v>
@@ -13916,7 +13943,7 @@
         <v>524</v>
       </c>
       <c r="D143" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E143">
         <v>7</v>
@@ -13994,7 +14021,7 @@
         <v>522</v>
       </c>
       <c r="D144" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E144">
         <v>8</v>
@@ -14072,7 +14099,7 @@
         <v>512</v>
       </c>
       <c r="D145" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E145">
         <v>9</v>
@@ -14150,7 +14177,7 @@
         <v>524</v>
       </c>
       <c r="D146" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -14228,7 +14255,7 @@
         <v>529</v>
       </c>
       <c r="D147" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E147">
         <v>2</v>
@@ -14306,7 +14333,7 @@
         <v>523</v>
       </c>
       <c r="D148" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E148">
         <v>3</v>
@@ -14384,7 +14411,7 @@
         <v>527</v>
       </c>
       <c r="D149" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E149">
         <v>4</v>
@@ -14462,7 +14489,7 @@
         <v>531</v>
       </c>
       <c r="D150" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E150">
         <v>5</v>
@@ -14540,7 +14567,7 @@
         <v>517</v>
       </c>
       <c r="D151" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E151">
         <v>6</v>
@@ -14618,7 +14645,7 @@
         <v>516</v>
       </c>
       <c r="D152" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E152">
         <v>7</v>
@@ -14696,7 +14723,7 @@
         <v>510</v>
       </c>
       <c r="D153" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E153">
         <v>8</v>
@@ -14774,7 +14801,7 @@
         <v>534</v>
       </c>
       <c r="D154" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E154">
         <v>9</v>
@@ -14852,7 +14879,7 @@
         <v>511</v>
       </c>
       <c r="D155" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E155">
         <v>10</v>
@@ -14930,7 +14957,7 @@
         <v>530</v>
       </c>
       <c r="D156" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -15008,7 +15035,7 @@
         <v>524</v>
       </c>
       <c r="D157" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E157">
         <v>2</v>
@@ -15086,7 +15113,7 @@
         <v>539</v>
       </c>
       <c r="D158" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E158">
         <v>3</v>
@@ -15164,7 +15191,7 @@
         <v>538</v>
       </c>
       <c r="D159" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E159">
         <v>4</v>
@@ -15242,7 +15269,7 @@
         <v>518</v>
       </c>
       <c r="D160" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E160">
         <v>5</v>
@@ -15320,7 +15347,7 @@
         <v>528</v>
       </c>
       <c r="D161" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E161">
         <v>6</v>
@@ -15398,7 +15425,7 @@
         <v>523</v>
       </c>
       <c r="D162" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E162">
         <v>7</v>
@@ -15470,13 +15497,13 @@
         <v>17</v>
       </c>
       <c r="B163" t="s">
-        <v>73</v>
-      </c>
-      <c r="C163" t="s">
-        <v>526</v>
+        <v>666</v>
+      </c>
+      <c r="C163">
+        <v>1732</v>
       </c>
       <c r="D163" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E163">
         <v>8</v>
@@ -15548,13 +15575,13 @@
         <v>17</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C164" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="D164" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E164">
         <v>9</v>
@@ -15623,19 +15650,19 @@
     </row>
     <row r="165" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B165" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D165" t="s">
         <v>646</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F165" t="s">
         <v>411</v>
@@ -15704,16 +15731,16 @@
         <v>18</v>
       </c>
       <c r="B166" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C166" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="D166" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F166" t="s">
         <v>411</v>
@@ -15782,16 +15809,16 @@
         <v>18</v>
       </c>
       <c r="B167" t="s">
-        <v>573</v>
+        <v>33</v>
       </c>
       <c r="C167" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D167" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F167" t="s">
         <v>411</v>
@@ -15860,16 +15887,16 @@
         <v>18</v>
       </c>
       <c r="B168" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C168" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="D168" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F168" t="s">
         <v>411</v>
@@ -15938,16 +15965,16 @@
         <v>18</v>
       </c>
       <c r="B169" t="s">
-        <v>97</v>
+        <v>575</v>
       </c>
       <c r="C169" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="D169" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F169" t="s">
         <v>411</v>
@@ -16016,16 +16043,16 @@
         <v>18</v>
       </c>
       <c r="B170" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C170" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D170" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E170">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F170" t="s">
         <v>411</v>
@@ -16091,22 +16118,22 @@
     </row>
     <row r="171" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C171" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="D171" t="s">
         <v>645</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F171" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I171" t="s">
         <v>355</v>
@@ -16172,16 +16199,16 @@
         <v>19</v>
       </c>
       <c r="B172" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C172" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="D172" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F172" t="s">
         <v>412</v>
@@ -16250,16 +16277,16 @@
         <v>19</v>
       </c>
       <c r="B173" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C173" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D173" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F173" t="s">
         <v>412</v>
@@ -16328,16 +16355,16 @@
         <v>19</v>
       </c>
       <c r="B174" t="s">
-        <v>555</v>
+        <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D174" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F174" t="s">
         <v>412</v>
@@ -16406,16 +16433,16 @@
         <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>164</v>
+        <v>555</v>
       </c>
       <c r="C175" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="D175" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E175">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F175" t="s">
         <v>412</v>
@@ -16484,16 +16511,16 @@
         <v>19</v>
       </c>
       <c r="B176" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C176" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D176" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E176">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F176" t="s">
         <v>412</v>
@@ -16562,16 +16589,16 @@
         <v>19</v>
       </c>
       <c r="B177" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="C177" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="D177" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E177">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F177" t="s">
         <v>412</v>
@@ -16640,16 +16667,16 @@
         <v>19</v>
       </c>
       <c r="B178" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="C178" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D178" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E178">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F178" t="s">
         <v>412</v>
@@ -16718,16 +16745,16 @@
         <v>19</v>
       </c>
       <c r="B179" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="C179" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D179" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E179">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F179" t="s">
         <v>412</v>
@@ -16793,19 +16820,19 @@
     </row>
     <row r="180" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B180" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="C180" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D180" t="s">
         <v>644</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F180" t="s">
         <v>412</v>
@@ -16874,16 +16901,16 @@
         <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="C181" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="D181" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F181" t="s">
         <v>412</v>
@@ -16952,16 +16979,16 @@
         <v>20</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="C182" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="D182" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F182" t="s">
         <v>412</v>
@@ -17030,16 +17057,16 @@
         <v>20</v>
       </c>
       <c r="B183" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D183" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F183" t="s">
         <v>412</v>
@@ -17108,16 +17135,16 @@
         <v>20</v>
       </c>
       <c r="B184" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="C184" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="D184" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E184">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F184" t="s">
         <v>412</v>
@@ -17186,16 +17213,16 @@
         <v>20</v>
       </c>
       <c r="B185" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="C185" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D185" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E185">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F185" t="s">
         <v>412</v>
@@ -17264,16 +17291,16 @@
         <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C186" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D186" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E186">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F186" t="s">
         <v>412</v>
@@ -17342,16 +17369,16 @@
         <v>20</v>
       </c>
       <c r="B187" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D187" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E187">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F187" t="s">
         <v>412</v>
@@ -17420,16 +17447,16 @@
         <v>20</v>
       </c>
       <c r="B188" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C188" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D188" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E188">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F188" t="s">
         <v>412</v>
@@ -17494,20 +17521,20 @@
       </c>
     </row>
     <row r="189" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
-        <v>21</v>
+      <c r="A189">
+        <v>20</v>
       </c>
       <c r="B189" t="s">
-        <v>607</v>
+        <v>122</v>
       </c>
       <c r="C189" t="s">
-        <v>534</v>
-      </c>
-      <c r="D189" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D189" t="s">
         <v>643</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F189" t="s">
         <v>412</v>
@@ -17576,16 +17603,16 @@
         <v>21</v>
       </c>
       <c r="B190" t="s">
-        <v>35</v>
+        <v>675</v>
       </c>
       <c r="C190" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F190" t="s">
         <v>412</v>
@@ -17654,16 +17681,16 @@
         <v>21</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="C191" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F191" t="s">
         <v>412</v>
@@ -17732,16 +17759,16 @@
         <v>21</v>
       </c>
       <c r="B192" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="C192" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E192">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F192" t="s">
         <v>412</v>
@@ -17810,16 +17837,16 @@
         <v>21</v>
       </c>
       <c r="B193" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="C193" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E193">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F193" t="s">
         <v>412</v>
@@ -17888,16 +17915,16 @@
         <v>21</v>
       </c>
       <c r="B194" t="s">
-        <v>668</v>
+        <v>82</v>
       </c>
       <c r="C194" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E194">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F194" t="s">
         <v>412</v>
@@ -17966,16 +17993,16 @@
         <v>21</v>
       </c>
       <c r="B195" t="s">
-        <v>600</v>
+        <v>665</v>
       </c>
       <c r="C195" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E195">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F195" t="s">
         <v>412</v>
@@ -18044,16 +18071,16 @@
         <v>21</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="C196" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E196">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F196" t="s">
         <v>412</v>
@@ -18122,16 +18149,16 @@
         <v>21</v>
       </c>
       <c r="B197" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="C197" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E197">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F197" t="s">
         <v>412</v>
@@ -18185,20 +18212,20 @@
       </c>
     </row>
     <row r="198" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>22</v>
+      <c r="A198" s="1">
+        <v>21</v>
       </c>
       <c r="B198" t="s">
-        <v>577</v>
+        <v>120</v>
       </c>
       <c r="C198" t="s">
-        <v>531</v>
-      </c>
-      <c r="D198" t="s">
+        <v>527</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>642</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F198" t="s">
         <v>412</v>
@@ -18267,16 +18294,16 @@
         <v>22</v>
       </c>
       <c r="B199" t="s">
-        <v>119</v>
+        <v>577</v>
       </c>
       <c r="C199" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="D199" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F199" t="s">
         <v>412</v>
@@ -18345,16 +18372,16 @@
         <v>22</v>
       </c>
       <c r="B200" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="C200" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="D200" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F200" t="s">
         <v>412</v>
@@ -18423,16 +18450,16 @@
         <v>22</v>
       </c>
       <c r="B201" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C201" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D201" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F201" t="s">
         <v>412</v>
@@ -18501,16 +18528,16 @@
         <v>22</v>
       </c>
       <c r="B202" t="s">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="C202" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D202" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E202">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F202" t="s">
         <v>412</v>
@@ -18579,16 +18606,16 @@
         <v>22</v>
       </c>
       <c r="B203" t="s">
-        <v>556</v>
+        <v>180</v>
       </c>
       <c r="C203" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D203" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E203">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F203" t="s">
         <v>412</v>
@@ -18657,16 +18684,16 @@
         <v>22</v>
       </c>
       <c r="B204" t="s">
-        <v>166</v>
+        <v>556</v>
       </c>
       <c r="C204" t="s">
         <v>534</v>
       </c>
       <c r="D204" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E204">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F204" t="s">
         <v>412</v>
@@ -18735,16 +18762,16 @@
         <v>22</v>
       </c>
       <c r="B205" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="C205" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D205" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E205">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F205" t="s">
         <v>412</v>
@@ -18813,16 +18840,16 @@
         <v>22</v>
       </c>
       <c r="B206" t="s">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="C206" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="D206" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E206">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F206" t="s">
         <v>412</v>
@@ -18891,16 +18918,16 @@
         <v>22</v>
       </c>
       <c r="B207" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="C207" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D207" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E207">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F207" t="s">
         <v>412</v>
@@ -18966,19 +18993,19 @@
     </row>
     <row r="208" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B208" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D208" t="s">
         <v>641</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F208" t="s">
         <v>412</v>
@@ -19047,16 +19074,16 @@
         <v>23</v>
       </c>
       <c r="B209" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="C209" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D209" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F209" t="s">
         <v>412</v>
@@ -19125,16 +19152,16 @@
         <v>23</v>
       </c>
       <c r="B210" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="C210" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="D210" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F210" t="s">
         <v>412</v>
@@ -19203,16 +19230,16 @@
         <v>23</v>
       </c>
       <c r="B211" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="C211" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="D211" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E211">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F211" t="s">
         <v>412</v>
@@ -19281,16 +19308,16 @@
         <v>23</v>
       </c>
       <c r="B212" t="s">
-        <v>46</v>
+        <v>674</v>
       </c>
       <c r="C212" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="D212" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E212">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F212" t="s">
         <v>412</v>
@@ -19359,16 +19386,16 @@
         <v>23</v>
       </c>
       <c r="B213" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C213" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="D213" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E213">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F213" t="s">
         <v>412</v>
@@ -19437,16 +19464,16 @@
         <v>23</v>
       </c>
       <c r="B214" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="C214" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="D214" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E214">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F214" t="s">
         <v>412</v>
@@ -19515,16 +19542,16 @@
         <v>23</v>
       </c>
       <c r="B215" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="C215" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D215" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E215">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F215" t="s">
         <v>412</v>
@@ -19593,16 +19620,16 @@
         <v>23</v>
       </c>
       <c r="B216" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="C216" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="D216" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E216">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F216" t="s">
         <v>412</v>
@@ -19671,16 +19698,16 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="C217" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="D217" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E217">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F217" t="s">
         <v>412</v>
@@ -19746,19 +19773,19 @@
     </row>
     <row r="218" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B218" t="s">
-        <v>578</v>
+        <v>105</v>
       </c>
       <c r="C218" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D218" t="s">
         <v>640</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F218" t="s">
         <v>412</v>
@@ -19827,16 +19854,16 @@
         <v>24</v>
       </c>
       <c r="B219" t="s">
-        <v>27</v>
+        <v>578</v>
       </c>
       <c r="C219" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D219" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F219" t="s">
         <v>412</v>
@@ -19905,16 +19932,16 @@
         <v>24</v>
       </c>
       <c r="B220" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C220" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D220" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F220" t="s">
         <v>412</v>
@@ -19983,16 +20010,16 @@
         <v>24</v>
       </c>
       <c r="B221" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="C221" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="D221" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E221">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F221" t="s">
         <v>412</v>
@@ -20061,16 +20088,16 @@
         <v>24</v>
       </c>
       <c r="B222" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="C222" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="D222" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E222">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F222" t="s">
         <v>412</v>
@@ -20139,16 +20166,16 @@
         <v>24</v>
       </c>
       <c r="B223" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="C223" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D223" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E223">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F223" t="s">
         <v>412</v>
@@ -20217,16 +20244,16 @@
         <v>24</v>
       </c>
       <c r="B224" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="C224" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D224" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E224">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F224" t="s">
         <v>412</v>
@@ -20295,16 +20322,16 @@
         <v>24</v>
       </c>
       <c r="B225" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C225" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="D225" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E225">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F225" t="s">
         <v>412</v>
@@ -20373,16 +20400,16 @@
         <v>24</v>
       </c>
       <c r="B226" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C226" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D226" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E226">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F226" t="s">
         <v>412</v>
@@ -20451,16 +20478,16 @@
         <v>24</v>
       </c>
       <c r="B227" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="C227" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D227" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E227">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F227" t="s">
         <v>412</v>
@@ -20526,19 +20553,19 @@
     </row>
     <row r="228" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B228" t="s">
-        <v>506</v>
+        <v>195</v>
       </c>
       <c r="C228" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D228" t="s">
         <v>639</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F228" t="s">
         <v>412</v>
@@ -20607,16 +20634,16 @@
         <v>25</v>
       </c>
       <c r="B229" t="s">
-        <v>57</v>
+        <v>506</v>
       </c>
       <c r="C229" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="D229" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F229" t="s">
         <v>412</v>
@@ -20685,16 +20712,16 @@
         <v>25</v>
       </c>
       <c r="B230" t="s">
-        <v>576</v>
+        <v>673</v>
       </c>
       <c r="C230" t="s">
         <v>536</v>
       </c>
       <c r="D230" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F230" t="s">
         <v>412</v>
@@ -20763,16 +20790,16 @@
         <v>25</v>
       </c>
       <c r="B231" t="s">
-        <v>51</v>
+        <v>576</v>
       </c>
       <c r="C231" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="D231" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E231">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F231" t="s">
         <v>412</v>
@@ -20841,16 +20868,16 @@
         <v>25</v>
       </c>
       <c r="B232" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="C232" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D232" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E232">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F232" t="s">
         <v>412</v>
@@ -20919,16 +20946,16 @@
         <v>25</v>
       </c>
       <c r="B233" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="C233" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="D233" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E233">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F233" t="s">
         <v>412</v>
@@ -20997,16 +21024,16 @@
         <v>25</v>
       </c>
       <c r="B234" t="s">
-        <v>509</v>
+        <v>146</v>
       </c>
       <c r="C234" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="D234" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E234">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F234" t="s">
         <v>412</v>
@@ -21075,16 +21102,16 @@
         <v>25</v>
       </c>
       <c r="B235" t="s">
-        <v>53</v>
+        <v>509</v>
       </c>
       <c r="C235" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D235" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E235">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F235" t="s">
         <v>412</v>
@@ -21153,16 +21180,16 @@
         <v>25</v>
       </c>
       <c r="B236" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="C236" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D236" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E236">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F236" t="s">
         <v>412</v>
@@ -21231,16 +21258,16 @@
         <v>25</v>
       </c>
       <c r="B237" t="s">
-        <v>507</v>
+        <v>186</v>
       </c>
       <c r="C237" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D237" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E237">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F237" t="s">
         <v>412</v>
@@ -21306,19 +21333,19 @@
     </row>
     <row r="238" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B238" t="s">
-        <v>206</v>
+        <v>507</v>
       </c>
       <c r="C238" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D238" t="s">
         <v>638</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F238" t="s">
         <v>412</v>
@@ -21387,16 +21414,16 @@
         <v>26</v>
       </c>
       <c r="B239" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="C239" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="D239" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F239" t="s">
         <v>412</v>
@@ -21465,16 +21492,16 @@
         <v>26</v>
       </c>
       <c r="B240" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C240" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="D240" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F240" t="s">
         <v>412</v>
@@ -21543,16 +21570,16 @@
         <v>26</v>
       </c>
       <c r="B241" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C241" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D241" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E241">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F241" t="s">
         <v>412</v>
@@ -21621,16 +21648,16 @@
         <v>26</v>
       </c>
       <c r="B242" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="C242" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="D242" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E242">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F242" t="s">
         <v>412</v>
@@ -21699,16 +21726,16 @@
         <v>26</v>
       </c>
       <c r="B243" t="s">
-        <v>579</v>
+        <v>137</v>
       </c>
       <c r="C243" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="D243" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E243">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F243" t="s">
         <v>412</v>
@@ -21777,16 +21804,16 @@
         <v>26</v>
       </c>
       <c r="B244" t="s">
-        <v>211</v>
+        <v>579</v>
       </c>
       <c r="C244" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="D244" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E244">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F244" t="s">
         <v>412</v>
@@ -21855,16 +21882,16 @@
         <v>26</v>
       </c>
       <c r="B245" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="C245" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="D245" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E245">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F245" t="s">
         <v>412</v>
@@ -21933,16 +21960,16 @@
         <v>26</v>
       </c>
       <c r="B246" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C246" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D246" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E246">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F246" t="s">
         <v>412</v>
@@ -22008,19 +22035,19 @@
     </row>
     <row r="247" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B247" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C247" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="D247" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F247" t="s">
         <v>412</v>
@@ -22089,16 +22116,16 @@
         <v>27</v>
       </c>
       <c r="B248" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="C248" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D248" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F248" t="s">
         <v>412</v>
@@ -22167,16 +22194,16 @@
         <v>27</v>
       </c>
       <c r="B249" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C249" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="D249" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F249" t="s">
         <v>412</v>
@@ -22245,16 +22272,16 @@
         <v>27</v>
       </c>
       <c r="B250" t="s">
-        <v>64</v>
+        <v>672</v>
       </c>
       <c r="C250" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D250" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E250">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F250" t="s">
         <v>412</v>
@@ -22323,16 +22350,16 @@
         <v>27</v>
       </c>
       <c r="B251" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C251" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D251" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E251">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F251" t="s">
         <v>412</v>
@@ -22401,16 +22428,16 @@
         <v>27</v>
       </c>
       <c r="B252" t="s">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="C252" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="D252" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E252">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F252" t="s">
         <v>412</v>
@@ -22479,16 +22506,16 @@
         <v>27</v>
       </c>
       <c r="B253" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="C253" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="D253" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E253">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F253" t="s">
         <v>412</v>
@@ -22557,16 +22584,16 @@
         <v>27</v>
       </c>
       <c r="B254" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C254" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="D254" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E254">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F254" t="s">
         <v>412</v>
@@ -22635,16 +22662,16 @@
         <v>27</v>
       </c>
       <c r="B255" t="s">
-        <v>508</v>
+        <v>96</v>
       </c>
       <c r="C255" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="D255" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E255">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F255" t="s">
         <v>412</v>
@@ -22709,6 +22736,24 @@
       </c>
     </row>
     <row r="256" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>27</v>
+      </c>
+      <c r="B256" t="s">
+        <v>508</v>
+      </c>
+      <c r="C256" t="s">
+        <v>521</v>
+      </c>
+      <c r="D256" t="s">
+        <v>634</v>
+      </c>
+      <c r="E256">
+        <v>9</v>
+      </c>
+      <c r="F256" t="s">
+        <v>412</v>
+      </c>
       <c r="I256" t="s">
         <v>424</v>
       </c>
@@ -23916,10 +23961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F255"/>
+  <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23955,7 +24000,7 @@
         <v>511</v>
       </c>
       <c r="D2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -23969,13 +24014,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>511</v>
+        <v>669</v>
+      </c>
+      <c r="C3">
+        <v>1729</v>
       </c>
       <c r="D3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -23995,7 +24040,7 @@
         <v>540</v>
       </c>
       <c r="D4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -24015,7 +24060,7 @@
         <v>519</v>
       </c>
       <c r="D5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -24035,7 +24080,7 @@
         <v>527</v>
       </c>
       <c r="D6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -24055,7 +24100,7 @@
         <v>526</v>
       </c>
       <c r="D7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -24075,7 +24120,7 @@
         <v>514</v>
       </c>
       <c r="D8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -24095,7 +24140,7 @@
         <v>533</v>
       </c>
       <c r="D9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -24115,7 +24160,7 @@
         <v>525</v>
       </c>
       <c r="D10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -24135,7 +24180,7 @@
         <v>537</v>
       </c>
       <c r="D11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -24155,7 +24200,7 @@
         <v>525</v>
       </c>
       <c r="D12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -24175,7 +24220,7 @@
         <v>528</v>
       </c>
       <c r="D13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -24195,7 +24240,7 @@
         <v>518</v>
       </c>
       <c r="D14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -24215,7 +24260,7 @@
         <v>516</v>
       </c>
       <c r="D15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -24235,7 +24280,7 @@
         <v>528</v>
       </c>
       <c r="D16" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -24255,7 +24300,7 @@
         <v>535</v>
       </c>
       <c r="D17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -24275,7 +24320,7 @@
         <v>538</v>
       </c>
       <c r="D18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -24295,7 +24340,7 @@
         <v>531</v>
       </c>
       <c r="D19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -24315,7 +24360,7 @@
         <v>517</v>
       </c>
       <c r="D20" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E20">
         <v>9</v>
@@ -24335,7 +24380,7 @@
         <v>515</v>
       </c>
       <c r="D21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -24355,7 +24400,7 @@
         <v>510</v>
       </c>
       <c r="D22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -24375,7 +24420,7 @@
         <v>523</v>
       </c>
       <c r="D23" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -24395,7 +24440,7 @@
         <v>530</v>
       </c>
       <c r="D24" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -24415,7 +24460,7 @@
         <v>510</v>
       </c>
       <c r="D25" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -24435,7 +24480,7 @@
         <v>539</v>
       </c>
       <c r="D26" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -24455,7 +24500,7 @@
         <v>529</v>
       </c>
       <c r="D27" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E27">
         <v>6</v>
@@ -24475,7 +24520,7 @@
         <v>515</v>
       </c>
       <c r="D28" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -24495,7 +24540,7 @@
         <v>512</v>
       </c>
       <c r="D29" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E29">
         <v>8</v>
@@ -24515,7 +24560,7 @@
         <v>524</v>
       </c>
       <c r="D30" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E30">
         <v>9</v>
@@ -24535,7 +24580,7 @@
         <v>534</v>
       </c>
       <c r="D31" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -24549,13 +24594,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>664</v>
-      </c>
-      <c r="C32" t="s">
-        <v>516</v>
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>1739</v>
       </c>
       <c r="D32" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -24575,7 +24620,7 @@
         <v>519</v>
       </c>
       <c r="D33" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -24595,7 +24640,7 @@
         <v>520</v>
       </c>
       <c r="D34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -24615,7 +24660,7 @@
         <v>519</v>
       </c>
       <c r="D35" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -24635,7 +24680,7 @@
         <v>537</v>
       </c>
       <c r="D36" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E36">
         <v>6</v>
@@ -24655,7 +24700,7 @@
         <v>531</v>
       </c>
       <c r="D37" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E37">
         <v>7</v>
@@ -24675,7 +24720,7 @@
         <v>516</v>
       </c>
       <c r="D38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E38">
         <v>8</v>
@@ -24695,7 +24740,7 @@
         <v>514</v>
       </c>
       <c r="D39" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E39">
         <v>9</v>
@@ -24715,7 +24760,7 @@
         <v>512</v>
       </c>
       <c r="D40" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E40">
         <v>10</v>
@@ -24735,7 +24780,7 @@
         <v>527</v>
       </c>
       <c r="D41" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -24755,7 +24800,7 @@
         <v>515</v>
       </c>
       <c r="D42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -24769,13 +24814,13 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C43" t="s">
         <v>536</v>
       </c>
       <c r="D43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -24795,7 +24840,7 @@
         <v>518</v>
       </c>
       <c r="D44" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -24815,7 +24860,7 @@
         <v>539</v>
       </c>
       <c r="D45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -24835,7 +24880,7 @@
         <v>536</v>
       </c>
       <c r="D46" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E46">
         <v>6</v>
@@ -24855,7 +24900,7 @@
         <v>510</v>
       </c>
       <c r="D47" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E47">
         <v>7</v>
@@ -24875,7 +24920,7 @@
         <v>510</v>
       </c>
       <c r="D48" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E48">
         <v>8</v>
@@ -24895,7 +24940,7 @@
         <v>515</v>
       </c>
       <c r="D49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E49">
         <v>9</v>
@@ -24915,7 +24960,7 @@
         <v>526</v>
       </c>
       <c r="D50" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E50">
         <v>10</v>
@@ -24935,7 +24980,7 @@
         <v>520</v>
       </c>
       <c r="D51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -24955,7 +25000,7 @@
         <v>511</v>
       </c>
       <c r="D52" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -24975,7 +25020,7 @@
         <v>511</v>
       </c>
       <c r="D53" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -24995,7 +25040,7 @@
         <v>533</v>
       </c>
       <c r="D54" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -25015,7 +25060,7 @@
         <v>532</v>
       </c>
       <c r="D55" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -25035,7 +25080,7 @@
         <v>523</v>
       </c>
       <c r="D56" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E56">
         <v>6</v>
@@ -25055,7 +25100,7 @@
         <v>513</v>
       </c>
       <c r="D57" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E57">
         <v>7</v>
@@ -25075,7 +25120,7 @@
         <v>530</v>
       </c>
       <c r="D58" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E58">
         <v>8</v>
@@ -25095,7 +25140,7 @@
         <v>531</v>
       </c>
       <c r="D59" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E59">
         <v>9</v>
@@ -25115,7 +25160,7 @@
         <v>534</v>
       </c>
       <c r="D60" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -25135,7 +25180,7 @@
         <v>514</v>
       </c>
       <c r="D61" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -25155,7 +25200,7 @@
         <v>521</v>
       </c>
       <c r="D62" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -25175,7 +25220,7 @@
         <v>521</v>
       </c>
       <c r="D63" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E63">
         <v>4</v>
@@ -25195,7 +25240,7 @@
         <v>524</v>
       </c>
       <c r="D64" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E64">
         <v>5</v>
@@ -25215,7 +25260,7 @@
         <v>522</v>
       </c>
       <c r="D65" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E65">
         <v>6</v>
@@ -25235,7 +25280,7 @@
         <v>539</v>
       </c>
       <c r="D66" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E66">
         <v>7</v>
@@ -25255,7 +25300,7 @@
         <v>526</v>
       </c>
       <c r="D67" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E67">
         <v>8</v>
@@ -25275,7 +25320,7 @@
         <v>525</v>
       </c>
       <c r="D68" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E68">
         <v>9</v>
@@ -25295,7 +25340,7 @@
         <v>524</v>
       </c>
       <c r="D69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E69">
         <v>10</v>
@@ -25315,7 +25360,7 @@
         <v>524</v>
       </c>
       <c r="D70" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -25335,7 +25380,7 @@
         <v>530</v>
       </c>
       <c r="D71" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -25355,7 +25400,7 @@
         <v>529</v>
       </c>
       <c r="D72" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -25375,7 +25420,7 @@
         <v>517</v>
       </c>
       <c r="D73" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E73">
         <v>4</v>
@@ -25395,7 +25440,7 @@
         <v>529</v>
       </c>
       <c r="D74" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -25415,7 +25460,7 @@
         <v>525</v>
       </c>
       <c r="D75" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E75">
         <v>6</v>
@@ -25435,7 +25480,7 @@
         <v>513</v>
       </c>
       <c r="D76" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E76">
         <v>7</v>
@@ -25455,7 +25500,7 @@
         <v>534</v>
       </c>
       <c r="D77" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E77">
         <v>8</v>
@@ -25475,7 +25520,7 @@
         <v>520</v>
       </c>
       <c r="D78" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E78">
         <v>9</v>
@@ -25495,7 +25540,7 @@
         <v>522</v>
       </c>
       <c r="D79" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -25515,7 +25560,7 @@
         <v>538</v>
       </c>
       <c r="D80" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -25535,7 +25580,7 @@
         <v>518</v>
       </c>
       <c r="D81" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E81">
         <v>3</v>
@@ -25555,7 +25600,7 @@
         <v>517</v>
       </c>
       <c r="D82" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -25575,7 +25620,7 @@
         <v>516</v>
       </c>
       <c r="D83" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -25595,7 +25640,7 @@
         <v>519</v>
       </c>
       <c r="D84" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E84">
         <v>6</v>
@@ -25615,7 +25660,7 @@
         <v>537</v>
       </c>
       <c r="D85" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E85">
         <v>7</v>
@@ -25629,13 +25674,13 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>670</v>
       </c>
       <c r="C86" t="s">
         <v>511</v>
       </c>
       <c r="D86" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E86">
         <v>8</v>
@@ -25655,7 +25700,7 @@
         <v>522</v>
       </c>
       <c r="D87" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -25675,7 +25720,7 @@
         <v>514</v>
       </c>
       <c r="D88" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -25695,7 +25740,7 @@
         <v>514</v>
       </c>
       <c r="D89" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -25715,7 +25760,7 @@
         <v>510</v>
       </c>
       <c r="D90" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -25735,7 +25780,7 @@
         <v>539</v>
       </c>
       <c r="D91" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -25755,7 +25800,7 @@
         <v>515</v>
       </c>
       <c r="D92" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -25775,7 +25820,7 @@
         <v>526</v>
       </c>
       <c r="D93" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E93">
         <v>7</v>
@@ -25795,7 +25840,7 @@
         <v>513</v>
       </c>
       <c r="D94" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E94">
         <v>8</v>
@@ -25815,7 +25860,7 @@
         <v>522</v>
       </c>
       <c r="D95" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E95">
         <v>9</v>
@@ -25835,7 +25880,7 @@
         <v>531</v>
       </c>
       <c r="D96" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E96">
         <v>10</v>
@@ -25855,7 +25900,7 @@
         <v>529</v>
       </c>
       <c r="D97" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -25869,13 +25914,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="C98" t="s">
         <v>528</v>
       </c>
       <c r="D98" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -25895,7 +25940,7 @@
         <v>520</v>
       </c>
       <c r="D99" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E99">
         <v>3</v>
@@ -25915,7 +25960,7 @@
         <v>526</v>
       </c>
       <c r="D100" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E100">
         <v>4</v>
@@ -25935,7 +25980,7 @@
         <v>512</v>
       </c>
       <c r="D101" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E101">
         <v>5</v>
@@ -25955,7 +26000,7 @@
         <v>513</v>
       </c>
       <c r="D102" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E102">
         <v>6</v>
@@ -25975,7 +26020,7 @@
         <v>523</v>
       </c>
       <c r="D103" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E103">
         <v>7</v>
@@ -25995,7 +26040,7 @@
         <v>537</v>
       </c>
       <c r="D104" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E104">
         <v>8</v>
@@ -26015,7 +26060,7 @@
         <v>510</v>
       </c>
       <c r="D105" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E105">
         <v>9</v>
@@ -26035,7 +26080,7 @@
         <v>519</v>
       </c>
       <c r="D106" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E106">
         <v>10</v>
@@ -26055,7 +26100,7 @@
         <v>533</v>
       </c>
       <c r="D107" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -26075,7 +26120,7 @@
         <v>515</v>
       </c>
       <c r="D108" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -26095,7 +26140,7 @@
         <v>534</v>
       </c>
       <c r="D109" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E109">
         <v>3</v>
@@ -26115,7 +26160,7 @@
         <v>539</v>
       </c>
       <c r="D110" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E110">
         <v>4</v>
@@ -26135,7 +26180,7 @@
         <v>517</v>
       </c>
       <c r="D111" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E111">
         <v>5</v>
@@ -26155,7 +26200,7 @@
         <v>525</v>
       </c>
       <c r="D112" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E112">
         <v>6</v>
@@ -26175,7 +26220,7 @@
         <v>520</v>
       </c>
       <c r="D113" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E113">
         <v>7</v>
@@ -26195,7 +26240,7 @@
         <v>518</v>
       </c>
       <c r="D114" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E114">
         <v>8</v>
@@ -26209,13 +26254,13 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>166</v>
+        <v>667</v>
       </c>
       <c r="C115" t="s">
         <v>534</v>
       </c>
       <c r="D115" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E115">
         <v>9</v>
@@ -26235,7 +26280,7 @@
         <v>529</v>
       </c>
       <c r="D116" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E116">
         <v>10</v>
@@ -26254,8 +26299,8 @@
       <c r="C117" t="s">
         <v>535</v>
       </c>
-      <c r="D117" t="s">
-        <v>651</v>
+      <c r="D117" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -26274,8 +26319,8 @@
       <c r="C118" t="s">
         <v>534</v>
       </c>
-      <c r="D118" t="s">
-        <v>651</v>
+      <c r="D118" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -26289,13 +26334,13 @@
         <v>13</v>
       </c>
       <c r="B119" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C119" t="s">
         <v>529</v>
       </c>
-      <c r="D119" t="s">
-        <v>651</v>
+      <c r="D119" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -26314,8 +26359,8 @@
       <c r="C120" t="s">
         <v>529</v>
       </c>
-      <c r="D120" t="s">
-        <v>651</v>
+      <c r="D120" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -26334,8 +26379,8 @@
       <c r="C121" t="s">
         <v>536</v>
       </c>
-      <c r="D121" t="s">
-        <v>651</v>
+      <c r="D121" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E121">
         <v>5</v>
@@ -26354,8 +26399,8 @@
       <c r="C122" t="s">
         <v>524</v>
       </c>
-      <c r="D122" t="s">
-        <v>651</v>
+      <c r="D122" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E122">
         <v>6</v>
@@ -26374,8 +26419,8 @@
       <c r="C123" t="s">
         <v>520</v>
       </c>
-      <c r="D123" t="s">
-        <v>651</v>
+      <c r="D123" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E123">
         <v>7</v>
@@ -26394,8 +26439,8 @@
       <c r="C124" t="s">
         <v>537</v>
       </c>
-      <c r="D124" t="s">
-        <v>651</v>
+      <c r="D124" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E124">
         <v>8</v>
@@ -26414,8 +26459,8 @@
       <c r="C125" t="s">
         <v>514</v>
       </c>
-      <c r="D125" t="s">
-        <v>651</v>
+      <c r="D125" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E125">
         <v>9</v>
@@ -26434,8 +26479,8 @@
       <c r="C126" t="s">
         <v>536</v>
       </c>
-      <c r="D126" t="s">
-        <v>651</v>
+      <c r="D126" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="E126">
         <v>10</v>
@@ -26455,7 +26500,7 @@
         <v>516</v>
       </c>
       <c r="D127" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -26475,7 +26520,7 @@
         <v>521</v>
       </c>
       <c r="D128" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E128">
         <v>2</v>
@@ -26495,7 +26540,7 @@
         <v>530</v>
       </c>
       <c r="D129" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E129">
         <v>3</v>
@@ -26515,7 +26560,7 @@
         <v>527</v>
       </c>
       <c r="D130" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E130">
         <v>4</v>
@@ -26535,7 +26580,7 @@
         <v>510</v>
       </c>
       <c r="D131" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E131">
         <v>5</v>
@@ -26555,7 +26600,7 @@
         <v>525</v>
       </c>
       <c r="D132" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E132">
         <v>6</v>
@@ -26575,7 +26620,7 @@
         <v>530</v>
       </c>
       <c r="D133" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E133">
         <v>7</v>
@@ -26595,7 +26640,7 @@
         <v>511</v>
       </c>
       <c r="D134" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E134">
         <v>8</v>
@@ -26615,7 +26660,7 @@
         <v>511</v>
       </c>
       <c r="D135" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E135">
         <v>9</v>
@@ -26635,7 +26680,7 @@
         <v>540</v>
       </c>
       <c r="D136" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E136">
         <v>10</v>
@@ -26655,7 +26700,7 @@
         <v>512</v>
       </c>
       <c r="D137" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -26675,7 +26720,7 @@
         <v>538</v>
       </c>
       <c r="D138" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E138">
         <v>2</v>
@@ -26695,7 +26740,7 @@
         <v>525</v>
       </c>
       <c r="D139" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E139">
         <v>3</v>
@@ -26715,7 +26760,7 @@
         <v>519</v>
       </c>
       <c r="D140" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E140">
         <v>4</v>
@@ -26735,7 +26780,7 @@
         <v>519</v>
       </c>
       <c r="D141" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E141">
         <v>5</v>
@@ -26755,7 +26800,7 @@
         <v>521</v>
       </c>
       <c r="D142" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E142">
         <v>6</v>
@@ -26775,7 +26820,7 @@
         <v>524</v>
       </c>
       <c r="D143" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E143">
         <v>7</v>
@@ -26795,7 +26840,7 @@
         <v>522</v>
       </c>
       <c r="D144" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E144">
         <v>8</v>
@@ -26815,7 +26860,7 @@
         <v>512</v>
       </c>
       <c r="D145" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E145">
         <v>9</v>
@@ -26835,7 +26880,7 @@
         <v>524</v>
       </c>
       <c r="D146" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -26855,7 +26900,7 @@
         <v>529</v>
       </c>
       <c r="D147" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E147">
         <v>2</v>
@@ -26875,7 +26920,7 @@
         <v>523</v>
       </c>
       <c r="D148" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E148">
         <v>3</v>
@@ -26895,7 +26940,7 @@
         <v>527</v>
       </c>
       <c r="D149" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E149">
         <v>4</v>
@@ -26915,7 +26960,7 @@
         <v>531</v>
       </c>
       <c r="D150" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E150">
         <v>5</v>
@@ -26935,7 +26980,7 @@
         <v>517</v>
       </c>
       <c r="D151" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E151">
         <v>6</v>
@@ -26955,7 +27000,7 @@
         <v>516</v>
       </c>
       <c r="D152" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E152">
         <v>7</v>
@@ -26975,7 +27020,7 @@
         <v>510</v>
       </c>
       <c r="D153" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E153">
         <v>8</v>
@@ -26995,7 +27040,7 @@
         <v>534</v>
       </c>
       <c r="D154" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E154">
         <v>9</v>
@@ -27015,7 +27060,7 @@
         <v>511</v>
       </c>
       <c r="D155" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E155">
         <v>10</v>
@@ -27035,7 +27080,7 @@
         <v>530</v>
       </c>
       <c r="D156" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -27055,7 +27100,7 @@
         <v>524</v>
       </c>
       <c r="D157" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E157">
         <v>2</v>
@@ -27075,7 +27120,7 @@
         <v>539</v>
       </c>
       <c r="D158" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E158">
         <v>3</v>
@@ -27095,7 +27140,7 @@
         <v>538</v>
       </c>
       <c r="D159" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E159">
         <v>4</v>
@@ -27115,7 +27160,7 @@
         <v>518</v>
       </c>
       <c r="D160" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E160">
         <v>5</v>
@@ -27135,7 +27180,7 @@
         <v>528</v>
       </c>
       <c r="D161" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E161">
         <v>6</v>
@@ -27155,7 +27200,7 @@
         <v>523</v>
       </c>
       <c r="D162" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E162">
         <v>7</v>
@@ -27169,13 +27214,13 @@
         <v>17</v>
       </c>
       <c r="B163" t="s">
-        <v>73</v>
-      </c>
-      <c r="C163" t="s">
-        <v>526</v>
+        <v>666</v>
+      </c>
+      <c r="C163">
+        <v>1732</v>
       </c>
       <c r="D163" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E163">
         <v>8</v>
@@ -27189,13 +27234,13 @@
         <v>17</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C164" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="D164" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E164">
         <v>9</v>
@@ -27206,19 +27251,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B165" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D165" t="s">
         <v>646</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F165" t="s">
         <v>411</v>
@@ -27229,16 +27274,16 @@
         <v>18</v>
       </c>
       <c r="B166" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C166" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="D166" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F166" t="s">
         <v>411</v>
@@ -27249,16 +27294,16 @@
         <v>18</v>
       </c>
       <c r="B167" t="s">
-        <v>573</v>
+        <v>33</v>
       </c>
       <c r="C167" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D167" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F167" t="s">
         <v>411</v>
@@ -27269,16 +27314,16 @@
         <v>18</v>
       </c>
       <c r="B168" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C168" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="D168" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F168" t="s">
         <v>411</v>
@@ -27289,16 +27334,16 @@
         <v>18</v>
       </c>
       <c r="B169" t="s">
-        <v>97</v>
+        <v>575</v>
       </c>
       <c r="C169" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="D169" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F169" t="s">
         <v>411</v>
@@ -27309,16 +27354,16 @@
         <v>18</v>
       </c>
       <c r="B170" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C170" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D170" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E170">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F170" t="s">
         <v>411</v>
@@ -27326,22 +27371,22 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C171" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="D171" t="s">
         <v>645</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F171" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -27349,16 +27394,16 @@
         <v>19</v>
       </c>
       <c r="B172" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C172" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="D172" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F172" t="s">
         <v>412</v>
@@ -27369,16 +27414,16 @@
         <v>19</v>
       </c>
       <c r="B173" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C173" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D173" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F173" t="s">
         <v>412</v>
@@ -27389,16 +27434,16 @@
         <v>19</v>
       </c>
       <c r="B174" t="s">
-        <v>555</v>
+        <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D174" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F174" t="s">
         <v>412</v>
@@ -27409,16 +27454,16 @@
         <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>164</v>
+        <v>555</v>
       </c>
       <c r="C175" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="D175" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E175">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F175" t="s">
         <v>412</v>
@@ -27429,16 +27474,16 @@
         <v>19</v>
       </c>
       <c r="B176" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C176" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D176" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E176">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F176" t="s">
         <v>412</v>
@@ -27449,16 +27494,16 @@
         <v>19</v>
       </c>
       <c r="B177" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="C177" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="D177" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E177">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F177" t="s">
         <v>412</v>
@@ -27469,16 +27514,16 @@
         <v>19</v>
       </c>
       <c r="B178" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="C178" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D178" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E178">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F178" t="s">
         <v>412</v>
@@ -27489,16 +27534,16 @@
         <v>19</v>
       </c>
       <c r="B179" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="C179" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D179" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E179">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F179" t="s">
         <v>412</v>
@@ -27506,19 +27551,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B180" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="C180" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D180" t="s">
         <v>644</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F180" t="s">
         <v>412</v>
@@ -27529,16 +27574,16 @@
         <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="C181" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="D181" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F181" t="s">
         <v>412</v>
@@ -27549,16 +27594,16 @@
         <v>20</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="C182" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="D182" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F182" t="s">
         <v>412</v>
@@ -27569,16 +27614,16 @@
         <v>20</v>
       </c>
       <c r="B183" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D183" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F183" t="s">
         <v>412</v>
@@ -27589,16 +27634,16 @@
         <v>20</v>
       </c>
       <c r="B184" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="C184" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="D184" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E184">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F184" t="s">
         <v>412</v>
@@ -27609,16 +27654,16 @@
         <v>20</v>
       </c>
       <c r="B185" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="C185" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D185" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E185">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F185" t="s">
         <v>412</v>
@@ -27629,16 +27674,16 @@
         <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C186" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D186" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E186">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F186" t="s">
         <v>412</v>
@@ -27649,16 +27694,16 @@
         <v>20</v>
       </c>
       <c r="B187" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D187" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E187">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F187" t="s">
         <v>412</v>
@@ -27669,36 +27714,36 @@
         <v>20</v>
       </c>
       <c r="B188" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C188" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D188" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E188">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F188" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
-        <v>21</v>
+      <c r="A189">
+        <v>20</v>
       </c>
       <c r="B189" t="s">
-        <v>607</v>
+        <v>122</v>
       </c>
       <c r="C189" t="s">
-        <v>534</v>
-      </c>
-      <c r="D189" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D189" t="s">
         <v>643</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F189" t="s">
         <v>412</v>
@@ -27709,16 +27754,16 @@
         <v>21</v>
       </c>
       <c r="B190" t="s">
-        <v>35</v>
+        <v>675</v>
       </c>
       <c r="C190" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F190" t="s">
         <v>412</v>
@@ -27729,16 +27774,16 @@
         <v>21</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="C191" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F191" t="s">
         <v>412</v>
@@ -27749,16 +27794,16 @@
         <v>21</v>
       </c>
       <c r="B192" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="C192" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E192">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F192" t="s">
         <v>412</v>
@@ -27769,16 +27814,16 @@
         <v>21</v>
       </c>
       <c r="B193" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="C193" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E193">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F193" t="s">
         <v>412</v>
@@ -27789,16 +27834,16 @@
         <v>21</v>
       </c>
       <c r="B194" t="s">
-        <v>668</v>
+        <v>82</v>
       </c>
       <c r="C194" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E194">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F194" t="s">
         <v>412</v>
@@ -27809,16 +27854,16 @@
         <v>21</v>
       </c>
       <c r="B195" t="s">
-        <v>600</v>
+        <v>665</v>
       </c>
       <c r="C195" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E195">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F195" t="s">
         <v>412</v>
@@ -27829,16 +27874,16 @@
         <v>21</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="C196" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E196">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F196" t="s">
         <v>412</v>
@@ -27849,36 +27894,36 @@
         <v>21</v>
       </c>
       <c r="B197" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="C197" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E197">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F197" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>22</v>
+      <c r="A198" s="1">
+        <v>21</v>
       </c>
       <c r="B198" t="s">
-        <v>577</v>
+        <v>120</v>
       </c>
       <c r="C198" t="s">
-        <v>531</v>
-      </c>
-      <c r="D198" t="s">
+        <v>527</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>642</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F198" t="s">
         <v>412</v>
@@ -27889,16 +27934,16 @@
         <v>22</v>
       </c>
       <c r="B199" t="s">
-        <v>119</v>
+        <v>577</v>
       </c>
       <c r="C199" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="D199" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F199" t="s">
         <v>412</v>
@@ -27909,16 +27954,16 @@
         <v>22</v>
       </c>
       <c r="B200" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="C200" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="D200" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F200" t="s">
         <v>412</v>
@@ -27929,16 +27974,16 @@
         <v>22</v>
       </c>
       <c r="B201" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C201" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D201" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F201" t="s">
         <v>412</v>
@@ -27949,16 +27994,16 @@
         <v>22</v>
       </c>
       <c r="B202" t="s">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="C202" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D202" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E202">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F202" t="s">
         <v>412</v>
@@ -27969,16 +28014,16 @@
         <v>22</v>
       </c>
       <c r="B203" t="s">
-        <v>556</v>
+        <v>180</v>
       </c>
       <c r="C203" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D203" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E203">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F203" t="s">
         <v>412</v>
@@ -27989,16 +28034,16 @@
         <v>22</v>
       </c>
       <c r="B204" t="s">
-        <v>166</v>
+        <v>556</v>
       </c>
       <c r="C204" t="s">
         <v>534</v>
       </c>
       <c r="D204" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E204">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F204" t="s">
         <v>412</v>
@@ -28009,16 +28054,16 @@
         <v>22</v>
       </c>
       <c r="B205" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="C205" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D205" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E205">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F205" t="s">
         <v>412</v>
@@ -28029,16 +28074,16 @@
         <v>22</v>
       </c>
       <c r="B206" t="s">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="C206" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="D206" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E206">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F206" t="s">
         <v>412</v>
@@ -28049,16 +28094,16 @@
         <v>22</v>
       </c>
       <c r="B207" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="C207" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D207" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E207">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F207" t="s">
         <v>412</v>
@@ -28066,19 +28111,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B208" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D208" t="s">
         <v>641</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F208" t="s">
         <v>412</v>
@@ -28089,16 +28134,16 @@
         <v>23</v>
       </c>
       <c r="B209" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="C209" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D209" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F209" t="s">
         <v>412</v>
@@ -28109,16 +28154,16 @@
         <v>23</v>
       </c>
       <c r="B210" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="C210" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="D210" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F210" t="s">
         <v>412</v>
@@ -28129,16 +28174,16 @@
         <v>23</v>
       </c>
       <c r="B211" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="C211" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="D211" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E211">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F211" t="s">
         <v>412</v>
@@ -28149,16 +28194,16 @@
         <v>23</v>
       </c>
       <c r="B212" t="s">
-        <v>46</v>
+        <v>674</v>
       </c>
       <c r="C212" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="D212" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E212">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F212" t="s">
         <v>412</v>
@@ -28169,16 +28214,16 @@
         <v>23</v>
       </c>
       <c r="B213" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C213" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="D213" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E213">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F213" t="s">
         <v>412</v>
@@ -28189,16 +28234,16 @@
         <v>23</v>
       </c>
       <c r="B214" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="C214" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="D214" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E214">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F214" t="s">
         <v>412</v>
@@ -28209,16 +28254,16 @@
         <v>23</v>
       </c>
       <c r="B215" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="C215" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D215" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E215">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F215" t="s">
         <v>412</v>
@@ -28229,16 +28274,16 @@
         <v>23</v>
       </c>
       <c r="B216" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="C216" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="D216" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E216">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F216" t="s">
         <v>412</v>
@@ -28249,16 +28294,16 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="C217" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="D217" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E217">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F217" t="s">
         <v>412</v>
@@ -28266,19 +28311,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B218" t="s">
-        <v>578</v>
+        <v>105</v>
       </c>
       <c r="C218" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D218" t="s">
         <v>640</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F218" t="s">
         <v>412</v>
@@ -28289,16 +28334,16 @@
         <v>24</v>
       </c>
       <c r="B219" t="s">
-        <v>27</v>
+        <v>578</v>
       </c>
       <c r="C219" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D219" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F219" t="s">
         <v>412</v>
@@ -28309,16 +28354,16 @@
         <v>24</v>
       </c>
       <c r="B220" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C220" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D220" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F220" t="s">
         <v>412</v>
@@ -28329,16 +28374,16 @@
         <v>24</v>
       </c>
       <c r="B221" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="C221" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="D221" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E221">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F221" t="s">
         <v>412</v>
@@ -28349,16 +28394,16 @@
         <v>24</v>
       </c>
       <c r="B222" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="C222" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="D222" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E222">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F222" t="s">
         <v>412</v>
@@ -28369,16 +28414,16 @@
         <v>24</v>
       </c>
       <c r="B223" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="C223" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D223" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E223">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F223" t="s">
         <v>412</v>
@@ -28389,16 +28434,16 @@
         <v>24</v>
       </c>
       <c r="B224" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="C224" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D224" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E224">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F224" t="s">
         <v>412</v>
@@ -28409,16 +28454,16 @@
         <v>24</v>
       </c>
       <c r="B225" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C225" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="D225" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E225">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F225" t="s">
         <v>412</v>
@@ -28429,16 +28474,16 @@
         <v>24</v>
       </c>
       <c r="B226" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C226" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D226" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E226">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F226" t="s">
         <v>412</v>
@@ -28449,16 +28494,16 @@
         <v>24</v>
       </c>
       <c r="B227" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="C227" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D227" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E227">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F227" t="s">
         <v>412</v>
@@ -28466,19 +28511,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B228" t="s">
-        <v>506</v>
+        <v>195</v>
       </c>
       <c r="C228" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D228" t="s">
         <v>639</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F228" t="s">
         <v>412</v>
@@ -28489,16 +28534,16 @@
         <v>25</v>
       </c>
       <c r="B229" t="s">
-        <v>57</v>
+        <v>506</v>
       </c>
       <c r="C229" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="D229" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F229" t="s">
         <v>412</v>
@@ -28509,16 +28554,16 @@
         <v>25</v>
       </c>
       <c r="B230" t="s">
-        <v>576</v>
+        <v>673</v>
       </c>
       <c r="C230" t="s">
         <v>536</v>
       </c>
       <c r="D230" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F230" t="s">
         <v>412</v>
@@ -28529,16 +28574,16 @@
         <v>25</v>
       </c>
       <c r="B231" t="s">
-        <v>51</v>
+        <v>576</v>
       </c>
       <c r="C231" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="D231" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E231">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F231" t="s">
         <v>412</v>
@@ -28549,16 +28594,16 @@
         <v>25</v>
       </c>
       <c r="B232" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="C232" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D232" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E232">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F232" t="s">
         <v>412</v>
@@ -28569,16 +28614,16 @@
         <v>25</v>
       </c>
       <c r="B233" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="C233" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="D233" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E233">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F233" t="s">
         <v>412</v>
@@ -28589,16 +28634,16 @@
         <v>25</v>
       </c>
       <c r="B234" t="s">
-        <v>509</v>
+        <v>146</v>
       </c>
       <c r="C234" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="D234" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E234">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F234" t="s">
         <v>412</v>
@@ -28609,16 +28654,16 @@
         <v>25</v>
       </c>
       <c r="B235" t="s">
-        <v>53</v>
+        <v>509</v>
       </c>
       <c r="C235" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D235" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E235">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F235" t="s">
         <v>412</v>
@@ -28629,16 +28674,16 @@
         <v>25</v>
       </c>
       <c r="B236" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="C236" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D236" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E236">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F236" t="s">
         <v>412</v>
@@ -28649,16 +28694,16 @@
         <v>25</v>
       </c>
       <c r="B237" t="s">
-        <v>507</v>
+        <v>186</v>
       </c>
       <c r="C237" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D237" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E237">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F237" t="s">
         <v>412</v>
@@ -28666,19 +28711,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B238" t="s">
-        <v>206</v>
+        <v>507</v>
       </c>
       <c r="C238" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D238" t="s">
         <v>638</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F238" t="s">
         <v>412</v>
@@ -28689,16 +28734,16 @@
         <v>26</v>
       </c>
       <c r="B239" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="C239" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="D239" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F239" t="s">
         <v>412</v>
@@ -28709,16 +28754,16 @@
         <v>26</v>
       </c>
       <c r="B240" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C240" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="D240" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F240" t="s">
         <v>412</v>
@@ -28729,16 +28774,16 @@
         <v>26</v>
       </c>
       <c r="B241" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C241" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D241" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E241">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F241" t="s">
         <v>412</v>
@@ -28749,16 +28794,16 @@
         <v>26</v>
       </c>
       <c r="B242" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="C242" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="D242" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E242">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F242" t="s">
         <v>412</v>
@@ -28769,16 +28814,16 @@
         <v>26</v>
       </c>
       <c r="B243" t="s">
-        <v>579</v>
+        <v>137</v>
       </c>
       <c r="C243" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="D243" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E243">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F243" t="s">
         <v>412</v>
@@ -28789,16 +28834,16 @@
         <v>26</v>
       </c>
       <c r="B244" t="s">
-        <v>211</v>
+        <v>579</v>
       </c>
       <c r="C244" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="D244" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E244">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F244" t="s">
         <v>412</v>
@@ -28809,16 +28854,16 @@
         <v>26</v>
       </c>
       <c r="B245" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="C245" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="D245" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E245">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F245" t="s">
         <v>412</v>
@@ -28829,16 +28874,16 @@
         <v>26</v>
       </c>
       <c r="B246" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C246" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D246" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E246">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F246" t="s">
         <v>412</v>
@@ -28846,19 +28891,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B247" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C247" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="D247" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F247" t="s">
         <v>412</v>
@@ -28869,16 +28914,16 @@
         <v>27</v>
       </c>
       <c r="B248" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="C248" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D248" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F248" t="s">
         <v>412</v>
@@ -28889,16 +28934,16 @@
         <v>27</v>
       </c>
       <c r="B249" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C249" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="D249" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F249" t="s">
         <v>412</v>
@@ -28909,16 +28954,16 @@
         <v>27</v>
       </c>
       <c r="B250" t="s">
-        <v>64</v>
+        <v>672</v>
       </c>
       <c r="C250" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D250" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E250">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F250" t="s">
         <v>412</v>
@@ -28929,16 +28974,16 @@
         <v>27</v>
       </c>
       <c r="B251" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C251" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D251" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E251">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F251" t="s">
         <v>412</v>
@@ -28949,16 +28994,16 @@
         <v>27</v>
       </c>
       <c r="B252" t="s">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="C252" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="D252" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E252">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F252" t="s">
         <v>412</v>
@@ -28969,16 +29014,16 @@
         <v>27</v>
       </c>
       <c r="B253" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="C253" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="D253" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E253">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F253" t="s">
         <v>412</v>
@@ -28989,16 +29034,16 @@
         <v>27</v>
       </c>
       <c r="B254" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C254" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="D254" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E254">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F254" t="s">
         <v>412</v>
@@ -29009,18 +29054,38 @@
         <v>27</v>
       </c>
       <c r="B255" t="s">
+        <v>96</v>
+      </c>
+      <c r="C255" t="s">
+        <v>538</v>
+      </c>
+      <c r="D255" t="s">
+        <v>634</v>
+      </c>
+      <c r="E255">
+        <v>8</v>
+      </c>
+      <c r="F255" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>27</v>
+      </c>
+      <c r="B256" t="s">
         <v>508</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C256" t="s">
         <v>521</v>
       </c>
-      <c r="D255" t="s">
-        <v>635</v>
-      </c>
-      <c r="E255">
+      <c r="D256" t="s">
+        <v>634</v>
+      </c>
+      <c r="E256">
         <v>9</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F256" t="s">
         <v>412</v>
       </c>
     </row>
